--- a/resources/箱包/Digital Gear & Camera Bags.xlsx
+++ b/resources/箱包/Digital Gear & Camera Bags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Digital Gear &amp; Camera Bags" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>Material</t>
   </si>
@@ -843,147 +843,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:A8" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:A8" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="47"/>
+    <tableColumn id="1" name="Material" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表1_11" displayName="表1_11" ref="A1:A8" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表1_11" displayName="表1_11" ref="A1:A8" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="35"/>
+    <tableColumn id="1" name="Material" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表1_14" displayName="表1_14" ref="A1:A8" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:A8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表1_14" displayName="表1_14" ref="A1:A13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:A13"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="32"/>
+    <tableColumn id="1" name="Material" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表1_315" displayName="表1_315" ref="A10:A12" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A10:A12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="表1_315" displayName="表1_315" ref="A15:A17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A15:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Type" dataDxfId="29"/>
+    <tableColumn id="1" name="Type" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表1_17" displayName="表1_17" ref="A1:A8" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="表1_17" displayName="表1_17" ref="A1:A8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="26"/>
+    <tableColumn id="1" name="Material" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表1_20" displayName="表1_20" ref="A1:A8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:A8"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="23"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表1_321" displayName="表1_321" ref="A10:A14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A10:A14"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Function" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表1_422" displayName="表1_422" ref="A16:A19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A16:A19"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Use" dataDxfId="17"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A10:A18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A10:A18"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Compatible Brand" dataDxfId="44"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A20:A23" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A20:A23"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Type" dataDxfId="41"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表1_423" displayName="表1_423" ref="A25:A28" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A25:A28"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Use" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表1_424" displayName="表1_424" ref="A30:A33" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A30:A33"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Function" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:A6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:A6"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Material" dataDxfId="38"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="表1_527" displayName="表1_527" ref="A8:A16" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A8:A16"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Compatible Brand" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表1_525" displayName="表1_525" ref="A1:A8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表1_20" displayName="表1_20" ref="A1:A8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:A8"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Material" dataDxfId="6"/>
@@ -992,11 +902,101 @@
 </table>
 </file>
 
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表1_321" displayName="表1_321" ref="A10:A14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A10:A14"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Function" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表1_422" displayName="表1_422" ref="A16:A19" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A16:A19"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Use" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A10:A18" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A10:A18"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Compatible Brand" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A20:A23" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A20:A23"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Type" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表1_423" displayName="表1_423" ref="A25:A28" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A25:A28"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Use" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表1_424" displayName="表1_424" ref="A30:A33" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A30:A33"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Function" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:A6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:A6"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Material" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="表1_527" displayName="表1_527" ref="A8:A16" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A8:A16"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Compatible Brand" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表1_525" displayName="表1_525" ref="A1:A8" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:A8"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Material" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表1_3626" displayName="表1_3626" ref="A10:A15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表1_3626" displayName="表1_3626" ref="A10:A15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A10:A15"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Type" dataDxfId="3"/>
+    <tableColumn id="1" name="Type" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1735,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1787,20 +1787,42 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1819,7 +1841,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1880,13 +1902,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
